--- a/data/taxa_results.xlsx
+++ b/data/taxa_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cliftonbdemesquita/Documents/GitHub/EastCoast/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cliftonbdemesquita/Documents/GitHub/EastCoast/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02DAD38-F22F-2245-9BAE-C50B44738112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059C219F-A772-B54A-94DA-63B73D028779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10820" yWindow="460" windowWidth="35840" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +362,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -406,9 +418,6 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -504,6 +513,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,7 +881,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -868,11 +889,7 @@
     <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="3.83203125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -888,8 +905,8 @@
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -897,10 +914,10 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
@@ -922,270 +939,270 @@
       <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="D5" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="8"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
+      <c r="D6" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="11"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="40"/>
+      <c r="E11" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="16"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="17"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="18"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="38"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1203,217 +1220,217 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="20"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="21"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="40"/>
+      <c r="E28" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2" t="s">
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="22"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="40"/>
+      <c r="E29" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
     </row>
     <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="23"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="D30" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="24"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
     </row>
     <row r="32" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="25"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
     </row>
     <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="26"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="27"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
     </row>
     <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="28"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2" t="s">
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="29"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
     </row>
     <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="30"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="D37" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="31"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
     </row>
     <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="32"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="D39" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
     </row>
     <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="33"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="34"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
     </row>
     <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="35"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="D42" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
     </row>
     <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="8"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
